--- a/config_12.08/shoping_config_xiaomi.xlsx
+++ b/config_12.08/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8983,8 +8983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9209,9 +9209,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9291,9 +9289,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9373,9 +9369,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9455,9 +9449,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9537,9 +9529,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9619,9 +9609,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9701,9 +9689,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9782,9 +9768,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9865,9 +9848,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10869,9 +10850,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1116</v>
       </c>
@@ -10973,10 +10952,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P437" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14766,7 +14745,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14822,7 +14801,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14878,7 +14857,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14934,7 +14913,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14990,7 +14969,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16323,7 +16302,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18357,7 +18336,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18413,7 +18392,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1203</v>
@@ -27698,7 +27677,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>

--- a/config_12.08/shoping_config_xiaomi.xlsx
+++ b/config_12.08/shoping_config_xiaomi.xlsx
@@ -7875,14 +7875,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8088,6 +8080,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10952,10 +10952,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31176,11 +31176,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31193,13 +31193,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1030</v>
@@ -31209,7 +31209,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31275,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31357,23 +31357,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31439,23 +31439,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31527,17 +31527,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31603,23 +31603,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31685,23 +31685,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31767,23 +31767,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31849,23 +31849,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31931,23 +31931,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39811,7 +39811,7 @@
         <v>1652</v>
       </c>
       <c r="Q455" s="60" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41117,7 +41117,7 @@
         <v>1736</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1760</v>
+        <v>1813</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41138,7 +41138,7 @@
         <v>1652</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1761</v>
+        <v>1812</v>
       </c>
       <c r="V475" s="63" t="s">
         <v>1749</v>
@@ -41176,13 +41176,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1792</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1794</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41200,13 +41200,13 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V476" s="67" t="s">
         <v>1796</v>
-      </c>
-      <c r="Q476" s="68" t="s">
-        <v>1797</v>
-      </c>
-      <c r="V476" s="67" t="s">
-        <v>1798</v>
       </c>
       <c r="W476" s="67">
         <v>9999999</v>
@@ -41241,13 +41241,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I477" s="67" t="s">
         <v>1799</v>
-      </c>
-      <c r="H477" s="67" t="s">
-        <v>1800</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1801</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41259,19 +41259,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O477" s="67">
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="V477" s="67" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="W477" s="67">
         <v>9999999</v>
@@ -41306,13 +41306,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41324,16 +41324,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O478" s="67">
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="Q478" s="68" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="V478" s="67" t="s">
         <v>529</v>
@@ -41371,13 +41371,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41389,19 +41389,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="67" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="O479" s="67">
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="V479" s="67" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="W479" s="67">
         <v>9999999</v>

--- a/config_12.08/shoping_config_xiaomi.xlsx
+++ b/config_12.08/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1829">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8089,6 +8089,62 @@
   <si>
     <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
   </si>
 </sst>
 </file>
@@ -8300,7 +8356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10949,13 +11008,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="F487" sqref="F487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -41425,6 +41484,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1817</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1617</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1819</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1821</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1823</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1820</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1825</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1827</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1828</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/shoping_config_xiaomi.xlsx
+++ b/config_12.08/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,14 +8088,6 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8174,7 +8166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8265,12 +8257,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8314,7 +8300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8532,12 +8518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10969,10 +10949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AF458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
@@ -11017,7 +10997,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11135,11 +11115,8 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11197,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11255,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11313,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11382,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11436,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11494,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11551,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11605,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11659,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11713,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11767,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11824,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11878,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11935,7 +11912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27689,7 +27666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27744,9 +27721,8 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-      <c r="AN273" s="73"/>
-    </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27822,7 +27798,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27887,7 +27863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27952,7 +27928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -28017,7 +27993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28082,7 +28058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28147,7 +28123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28212,7 +28188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28277,7 +28253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28342,7 +28318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28407,7 +28383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28472,7 +28448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28534,7 +28510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28596,7 +28572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28658,7 +28634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35250,7 +35226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35318,7 +35294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35385,9 +35361,8 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-      <c r="AN386" s="49"/>
-    </row>
-    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35454,9 +35429,8 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-      <c r="AN387" s="49"/>
-    </row>
-    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35523,9 +35497,8 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-      <c r="AN388" s="49"/>
-    </row>
-    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35592,9 +35565,8 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-      <c r="AN389" s="65"/>
-    </row>
-    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35661,9 +35633,8 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-      <c r="AN390" s="65"/>
-    </row>
-    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35730,9 +35701,8 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-      <c r="AN391" s="65"/>
-    </row>
-    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35799,9 +35769,8 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-      <c r="AN392" s="49"/>
-    </row>
-    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35868,9 +35837,8 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-      <c r="AN393" s="49"/>
-    </row>
-    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35937,9 +35905,8 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-      <c r="AN394" s="49"/>
-    </row>
-    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -36001,7 +35968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -36063,7 +36030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36125,7 +36092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36187,7 +36154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36249,7 +36216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36311,7 +36278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36376,7 +36343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36441,7 +36408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36506,7 +36473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36571,7 +36538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36636,7 +36603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36701,7 +36668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36766,7 +36733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36830,9 +36797,8 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-      <c r="AN408" s="5"/>
-    </row>
-    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36896,9 +36862,8 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-      <c r="AN409" s="5"/>
-    </row>
-    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36962,9 +36927,8 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-      <c r="AN410" s="5"/>
-    </row>
-    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -37028,9 +36992,8 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-      <c r="AN411" s="5"/>
-    </row>
-    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37094,9 +37057,8 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-      <c r="AN412" s="5"/>
-    </row>
-    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37160,9 +37122,8 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-      <c r="AN413" s="5"/>
-    </row>
-    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37218,7 +37179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37286,7 +37247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37354,7 +37315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37422,7 +37383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37490,7 +37451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37558,7 +37519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37626,7 +37587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37694,7 +37655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37761,9 +37722,8 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-      <c r="AN422" s="6"/>
-    </row>
-    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37830,9 +37790,8 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-      <c r="AN423" s="6"/>
-    </row>
-    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37899,9 +37858,8 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-      <c r="AN424" s="6"/>
-    </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37956,11 +37914,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -38016,7 +37971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -38071,11 +38026,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38131,7 +38083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38187,7 +38139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38255,7 +38207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38323,7 +38275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38391,7 +38343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38459,7 +38411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38523,9 +38475,8 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-      <c r="AN434" s="5"/>
-    </row>
-    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38589,9 +38540,8 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-      <c r="AN435" s="5"/>
-    </row>
-    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38655,9 +38605,8 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-      <c r="AN436" s="5"/>
-    </row>
-    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38721,9 +38670,8 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-      <c r="AN437" s="5"/>
-    </row>
-    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38787,9 +38735,8 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-      <c r="AN438" s="5"/>
-    </row>
-    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38853,9 +38800,8 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-      <c r="AN439" s="5"/>
-    </row>
-    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38919,9 +38865,8 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-      <c r="AN440" s="5"/>
-    </row>
-    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38982,9 +38927,8 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-      <c r="AN441" s="5"/>
-    </row>
-    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -39045,9 +38989,8 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-      <c r="AN442" s="5"/>
-    </row>
-    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39108,9 +39051,8 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-      <c r="AN443" s="5"/>
-    </row>
-    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39171,9 +39113,8 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-      <c r="AN444" s="5"/>
-    </row>
-    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39234,9 +39175,8 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-      <c r="AN445" s="5"/>
-    </row>
-    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39297,9 +39237,8 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-      <c r="AN446" s="5"/>
-    </row>
-    <row r="447" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="59">
         <v>446</v>
       </c>
@@ -39367,7 +39306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="59">
         <v>447</v>
       </c>
@@ -40505,7 +40444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="59">
         <v>464</v>
       </c>
@@ -40573,7 +40512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="59">
         <v>465</v>
       </c>
@@ -40638,7 +40577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="59">
         <v>466</v>
       </c>
@@ -40706,7 +40645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="63">
         <v>467</v>
       </c>
@@ -40771,7 +40710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="63">
         <v>468</v>
       </c>
@@ -40836,7 +40775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="63">
         <v>469</v>
       </c>
@@ -40901,7 +40840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="63">
         <v>470</v>
       </c>
@@ -40966,7 +40905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="63">
         <v>471</v>
       </c>
@@ -41031,7 +40970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="63">
         <v>472</v>
       </c>
@@ -41096,7 +41035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="59">
         <v>473</v>
       </c>
@@ -41160,9 +41099,8 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-      <c r="AN474" s="74"/>
-    </row>
-    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="59">
         <v>474</v>
       </c>
@@ -41226,9 +41164,8 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-      <c r="AN475" s="74"/>
-    </row>
-    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41293,7 +41230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41358,7 +41295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41423,7 +41360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41487,33 +41424,6 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN486" s="5"/>
-    </row>
-    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN487" s="5"/>
-    </row>
-    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_12.08/shoping_config_xiaomi.xlsx
+++ b/config_12.08/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1816">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8088,6 +8088,14 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8166,7 +8174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8257,6 +8265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8300,7 +8314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8532,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10949,13 +10969,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AF458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10997,7 +11017,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11115,8 +11135,11 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN1" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11174,7 +11197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11232,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11290,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11359,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11413,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11471,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11528,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11582,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11636,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11690,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11744,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11801,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11855,7 +11878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11912,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27666,7 +27689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27721,8 +27744,9 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AN273" s="73"/>
+    </row>
+    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27798,7 +27822,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27863,7 +27887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27928,7 +27952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27993,7 +28017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28058,7 +28082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28123,7 +28147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28188,7 +28212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28253,7 +28277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28318,7 +28342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28383,7 +28407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28448,7 +28472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28510,7 +28534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28572,7 +28596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28634,7 +28658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35226,7 +35250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35294,7 +35318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35361,8 +35385,9 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN386" s="49"/>
+    </row>
+    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35429,8 +35454,9 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN387" s="49"/>
+    </row>
+    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35497,8 +35523,9 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN388" s="49"/>
+    </row>
+    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35565,8 +35592,9 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN389" s="65"/>
+    </row>
+    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35633,8 +35661,9 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN390" s="65"/>
+    </row>
+    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35701,8 +35730,9 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN391" s="65"/>
+    </row>
+    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35769,8 +35799,9 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN392" s="49"/>
+    </row>
+    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35837,8 +35868,9 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN393" s="49"/>
+    </row>
+    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35905,8 +35937,9 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN394" s="49"/>
+    </row>
+    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35968,7 +36001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -36030,7 +36063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36092,7 +36125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36154,7 +36187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36216,7 +36249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36278,7 +36311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36343,7 +36376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36408,7 +36441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36473,7 +36506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36538,7 +36571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36603,7 +36636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36668,7 +36701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36733,7 +36766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36797,8 +36830,9 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN408" s="5"/>
+    </row>
+    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36862,8 +36896,9 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN409" s="5"/>
+    </row>
+    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36927,8 +36962,9 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN410" s="5"/>
+    </row>
+    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -36992,8 +37028,9 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN411" s="5"/>
+    </row>
+    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37057,8 +37094,9 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN412" s="5"/>
+    </row>
+    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37122,8 +37160,9 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN413" s="5"/>
+    </row>
+    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37179,7 +37218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37247,7 +37286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37315,7 +37354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37383,7 +37422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37451,7 +37490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37519,7 +37558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37587,7 +37626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37655,7 +37694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37722,8 +37761,9 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN422" s="6"/>
+    </row>
+    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37790,8 +37830,9 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN423" s="6"/>
+    </row>
+    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37858,8 +37899,9 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN424" s="6"/>
+    </row>
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37914,8 +37956,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN425" s="6" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37971,7 +38016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -38026,8 +38071,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN427" s="6" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38083,7 +38131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38139,7 +38187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38207,7 +38255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38275,7 +38323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38343,7 +38391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38411,7 +38459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38475,8 +38523,9 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN434" s="5"/>
+    </row>
+    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38540,8 +38589,9 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN435" s="5"/>
+    </row>
+    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38605,8 +38655,9 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN436" s="5"/>
+    </row>
+    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38670,8 +38721,9 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN437" s="5"/>
+    </row>
+    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38735,8 +38787,9 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN438" s="5"/>
+    </row>
+    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38800,8 +38853,9 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN439" s="5"/>
+    </row>
+    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38865,8 +38919,9 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN440" s="5"/>
+    </row>
+    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38927,8 +38982,9 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN441" s="5"/>
+    </row>
+    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -38989,8 +39045,9 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN442" s="5"/>
+    </row>
+    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39051,8 +39108,9 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN443" s="5"/>
+    </row>
+    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39113,8 +39171,9 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN444" s="5"/>
+    </row>
+    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39175,8 +39234,9 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN445" s="5"/>
+    </row>
+    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39237,8 +39297,9 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN446" s="5"/>
+    </row>
+    <row r="447" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="59">
         <v>446</v>
       </c>
@@ -39306,7 +39367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="59">
         <v>447</v>
       </c>
@@ -40444,7 +40505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="59">
         <v>464</v>
       </c>
@@ -40512,7 +40573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="59">
         <v>465</v>
       </c>
@@ -40577,7 +40638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="59">
         <v>466</v>
       </c>
@@ -40645,7 +40706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="63">
         <v>467</v>
       </c>
@@ -40710,7 +40771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="63">
         <v>468</v>
       </c>
@@ -40775,7 +40836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="63">
         <v>469</v>
       </c>
@@ -40840,7 +40901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="63">
         <v>470</v>
       </c>
@@ -40905,7 +40966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="63">
         <v>471</v>
       </c>
@@ -40970,7 +41031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="63">
         <v>472</v>
       </c>
@@ -41035,7 +41096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="59">
         <v>473</v>
       </c>
@@ -41099,8 +41160,9 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN474" s="74"/>
+    </row>
+    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="59">
         <v>474</v>
       </c>
@@ -41164,8 +41226,9 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN475" s="74"/>
+    </row>
+    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41230,7 +41293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41295,7 +41358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41360,7 +41423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41424,6 +41487,33 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN486" s="5"/>
+    </row>
+    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN487" s="5"/>
+    </row>
+    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
